--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\scripts\fileRename\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9BE65-74D4-44BE-82EE-21AD02283770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD0A9F-B163-4B45-8185-F81064185A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20596" windowHeight="15488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>kk10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,59 +360,59 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
